--- a/presentazione/materiale/pipeline_di_particles_c.cu.xlsx
+++ b/presentazione/materiale/pipeline_di_particles_c.cu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/particles-simulation-parallel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/particles-simulation-parallel/presentazione/materiale/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB2EF2B8-E5C2-7A45-A6F7-9A63A0ADFCDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAA3E45-D7BF-0D44-9DCE-7F8AA794C804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="420" yWindow="700" windowWidth="27640" windowHeight="15780" xr2:uid="{E21E9A4B-29C5-9F48-BB7A-F9ADF721E77D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="19">
   <si>
     <t>STEP 1</t>
   </si>
@@ -132,7 +132,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -149,11 +149,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -168,6 +179,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -482,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9086E50-B1B4-D346-9817-949245AC6006}">
-  <dimension ref="A2:K16"/>
+  <dimension ref="A2:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="199" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -503,19 +521,19 @@
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
@@ -538,59 +556,64 @@
       <c r="A3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="7"/>
+      <c r="D3" s="15"/>
       <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
-      <c r="B4" s="2"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="13"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="10"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E8" s="1"/>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="F9" s="1"/>
       <c r="G9" s="3" t="s">
         <v>10</v>
       </c>
@@ -600,7 +623,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="F10" s="1"/>
       <c r="G10" s="2"/>
       <c r="H10" s="3" t="s">
         <v>12</v>
@@ -610,7 +633,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="F11" s="1"/>
       <c r="G11" s="4" t="s">
         <v>11</v>
       </c>
@@ -660,6 +683,146 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
     </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+      <c r="B17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="15"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B22" s="2"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="20"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D23" s="1"/>
+      <c r="E23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="20"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F24" s="1"/>
+      <c r="G24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F25" s="1"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F26" s="1"/>
+      <c r="G26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="13"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G28" s="2"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J29" s="1"/>
+      <c r="K29" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
